--- a/実行結果/お互いにDP(cost-user)修正後.xlsx
+++ b/実行結果/お互いにDP(cost-user)修正後.xlsx
@@ -8,19 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3797287E-C2CD-4471-9BCB-1645D10E3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BE6E9-F7CD-498D-9AA4-3363504178B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{F4CE3426-3F33-4730-AC94-F677BB530042}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-user)修正後" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>seed</t>
   </si>
@@ -86,13 +101,65 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>完全一致数</t>
+    <rPh sb="0" eb="2">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユーザ数1~2</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユーザ数3~6</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユーザ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -680,11 +747,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,10 +1132,3225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23F28A-BE89-4C32-B94D-E4BCB55560AB}">
+  <dimension ref="A1:R67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>94.478999999999701</v>
+      </c>
+      <c r="C2">
+        <v>225.14999999999901</v>
+      </c>
+      <c r="D2">
+        <v>225.14999999999901</v>
+      </c>
+      <c r="E2">
+        <v>94.478999999999701</v>
+      </c>
+      <c r="F2">
+        <f>B2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2/D2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(H2:H67)</f>
+        <v>2.5435845752017752E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>AVERAGE(I2:I67)</f>
+        <v>1.8737130845176183E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>140.096</v>
+      </c>
+      <c r="C3">
+        <v>248.57799999999901</v>
+      </c>
+      <c r="D3">
+        <v>248.57799999999901</v>
+      </c>
+      <c r="E3">
+        <v>140.096</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">B3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">D3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="2">F3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I66" si="3">G3/D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>165.15799999999999</v>
+      </c>
+      <c r="C4">
+        <v>255.153999999999</v>
+      </c>
+      <c r="D4">
+        <v>255.153999999999</v>
+      </c>
+      <c r="E4">
+        <v>165.15799999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(F:F,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <f>L4/66</f>
+        <v>0.46969696969696972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>176.14599999999899</v>
+      </c>
+      <c r="C5">
+        <v>260.873999999999</v>
+      </c>
+      <c r="D5">
+        <v>264.07499999999902</v>
+      </c>
+      <c r="E5">
+        <v>178.23699999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-2.0910000000010029</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3.2010000000000218</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.1870834421451608E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2121556376029664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>191.96899999999999</v>
+      </c>
+      <c r="C6">
+        <v>265.495</v>
+      </c>
+      <c r="D6">
+        <v>269.23599999999902</v>
+      </c>
+      <c r="E6">
+        <v>188.93099999999899</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.0380000000010057</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.7409999999990191</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5825471820976333E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3894872899608644E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>200.97</v>
+      </c>
+      <c r="C7">
+        <v>271.77099999999899</v>
+      </c>
+      <c r="D7">
+        <v>274.06899999999899</v>
+      </c>
+      <c r="E7">
+        <v>194.479999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6.4900000000010039</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.2980000000000018</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2293377120968324E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3847498257738386E-3</v>
+      </c>
+      <c r="K7">
+        <f>COUNT(G:G)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>147.13200000000001</v>
+      </c>
+      <c r="C8">
+        <v>244.06299999999899</v>
+      </c>
+      <c r="D8">
+        <v>242.88</v>
+      </c>
+      <c r="E8">
+        <v>129.649</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>17.483000000000004</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1.182999999998998</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11882527254438194</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.8707180500617503E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>199.607</v>
+      </c>
+      <c r="C9">
+        <v>259.06900000000002</v>
+      </c>
+      <c r="D9">
+        <v>252.176999999999</v>
+      </c>
+      <c r="E9">
+        <v>169.453</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>30.153999999999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-6.8920000000010191</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15106684635308379</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.733001027056808E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>218.029</v>
+      </c>
+      <c r="C10">
+        <v>266.147999999999</v>
+      </c>
+      <c r="D10">
+        <v>265.74699999999899</v>
+      </c>
+      <c r="E10">
+        <v>220.304</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-2.2750000000000057</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-0.40100000000001046</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0434391755225248E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5089540051252206E-3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.5435845752017752E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1">
+        <f>AVERAGE(P11:P16)</f>
+        <v>2.5435845752017752E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.2749098159320037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>230.91099999999901</v>
+      </c>
+      <c r="C11">
+        <v>273.38299999999902</v>
+      </c>
+      <c r="D11">
+        <v>271.80299999999897</v>
+      </c>
+      <c r="E11">
+        <v>232.096</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-1.185000000000997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-1.5800000000000409</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1318473351247978E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.8130337045582533E-3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6.5336643989425694E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <f>AVERAGE(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
+        <v>8.3421391264195829E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>MAX(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="R11" s="2">
+        <f>AVERAGE(P11:P12)</f>
+        <v>6.5336643989425749E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>240.256</v>
+      </c>
+      <c r="C12">
+        <v>278.35099999999898</v>
+      </c>
+      <c r="D12">
+        <v>276.58399999999898</v>
+      </c>
+      <c r="E12">
+        <v>242.15299999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-1.8969999999999914</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-1.7669999999999959</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.8957445391581952E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.3886558875423105E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5.4854466333137571E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.2743142637097904E-2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P16" si="4">AVERAGE(H3,H9,H15,H21,H27,H33,H39,H45,H51,H57,H62)</f>
+        <v>4.7251896714655663E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12:Q16" si="5">MAX(H3,H9,H15,H21,H27,H33,H39,H45,H51,H57,H62)</f>
+        <v>0.19662261800793876</v>
+      </c>
+      <c r="R12" s="2">
+        <f>AVERAGE(P13:P16)</f>
+        <v>5.4854466333137571E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>249.13999999999899</v>
+      </c>
+      <c r="C13">
+        <v>279.18099999999902</v>
+      </c>
+      <c r="D13">
+        <v>279.301999999999</v>
+      </c>
+      <c r="E13">
+        <v>246.70299999999901</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.4369999999999834</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.1209999999999809</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7816488721200658E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3322281974343663E-4</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7321148543032985E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2743142637097904E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C14">
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D14">
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E14">
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.1205645469303753E-3</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3232355505202044E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C15">
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D15">
+        <v>265.601</v>
+      </c>
+      <c r="E15">
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="4"/>
+        <v>6.2679894029599756E-4</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5825471820976333E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>202.55600000000001</v>
+      </c>
+      <c r="C16">
+        <v>275.58399999999898</v>
+      </c>
+      <c r="D16">
+        <v>275.22199999999998</v>
+      </c>
+      <c r="E16">
+        <v>189.84700000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>12.709000000000003</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-0.36199999999900001</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2743142637097904E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3153018290652638E-3</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="4"/>
+        <v>8.1144035968564229E-3</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2293377120968324E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>217.09100000000001</v>
+      </c>
+      <c r="C17">
+        <v>280.16899999999902</v>
+      </c>
+      <c r="D17">
+        <v>283.16099999999898</v>
+      </c>
+      <c r="E17">
+        <v>219.10300000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-2.0120000000000005</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.9919999999999618</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.2680028190942985E-3</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0566426873757235E-2</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>228.38899999999899</v>
+      </c>
+      <c r="C18">
+        <v>283.88299999999902</v>
+      </c>
+      <c r="D18">
+        <v>285.31700000000001</v>
+      </c>
+      <c r="E18">
+        <v>230.14699999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-1.7580000000010045</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.4340000000009923</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.6973934821773921E-3</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0259886372035038E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>237.483</v>
+      </c>
+      <c r="C19">
+        <v>286.99099999999999</v>
+      </c>
+      <c r="D19">
+        <v>289.46600000000001</v>
+      </c>
+      <c r="E19">
+        <v>234.43100000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.0519999999999925</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.4750000000000227</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2851446208781229E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5502269696614546E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C20">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D20">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E20">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C21">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D21">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E21">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>206.80199999999999</v>
+      </c>
+      <c r="C22">
+        <v>257.474999999999</v>
+      </c>
+      <c r="D22">
+        <v>256.06</v>
+      </c>
+      <c r="E22">
+        <v>202.63999999999899</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4.1620000000010009</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-1.4149999999989973</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.012553070086847E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.5260485823595924E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>219.09099999999901</v>
+      </c>
+      <c r="C23">
+        <v>263.72800000000001</v>
+      </c>
+      <c r="D23">
+        <v>263.00299999999902</v>
+      </c>
+      <c r="E23">
+        <v>218.58199999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.50899999999901979</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-0.72500000000098908</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3232355505202044E-3</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.7566225480355425E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>235.22</v>
+      </c>
+      <c r="C24">
+        <v>270.48499999999899</v>
+      </c>
+      <c r="D24">
+        <v>271.09699999999901</v>
+      </c>
+      <c r="E24">
+        <v>234.71199999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000978</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.61200000000002319</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1596802992943191E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2574945499213394E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>245.19</v>
+      </c>
+      <c r="C25">
+        <v>277.43299999999903</v>
+      </c>
+      <c r="D25">
+        <v>275.59399999999903</v>
+      </c>
+      <c r="E25">
+        <v>242.93299999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.257000000000005</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-1.8389999999999986</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2051062441372202E-3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.6728593510744253E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>97.300999999999704</v>
+      </c>
+      <c r="C26">
+        <v>222.48</v>
+      </c>
+      <c r="D26">
+        <v>237.37</v>
+      </c>
+      <c r="E26">
+        <v>70.551999999999893</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>26.74899999999981</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>14.890000000000015</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2729072755613666E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>139.69399999999999</v>
+      </c>
+      <c r="C27">
+        <v>248.16300000000001</v>
+      </c>
+      <c r="D27">
+        <v>252.96799999999899</v>
+      </c>
+      <c r="E27">
+        <v>112.22699999999899</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>27.467000000000994</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>4.8049999999989836</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19662261800793876</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8994497327721304E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>169.06200000000001</v>
+      </c>
+      <c r="C28">
+        <v>257.75599999999901</v>
+      </c>
+      <c r="D28">
+        <v>262.57699999999897</v>
+      </c>
+      <c r="E28">
+        <v>163.10599999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5.9560000000000173</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>4.8209999999999695</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5229679052655338E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.836032858932804E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>188.929</v>
+      </c>
+      <c r="C29">
+        <v>262.83199999999903</v>
+      </c>
+      <c r="D29">
+        <v>269.96399999999898</v>
+      </c>
+      <c r="E29">
+        <v>191.65600000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-2.7270000000000039</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>7.1319999999999482</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4433993722509534E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6418337259782695E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>202.779</v>
+      </c>
+      <c r="C30">
+        <v>270.27699999999902</v>
+      </c>
+      <c r="D30">
+        <v>274.61799999999897</v>
+      </c>
+      <c r="E30">
+        <v>200.742999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2.0360000000009961</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>4.3409999999999513</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0040487427203981E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5807412478424456E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>213.98500000000001</v>
+      </c>
+      <c r="C31">
+        <v>275.64299999999901</v>
+      </c>
+      <c r="D31">
+        <v>280.07399999999899</v>
+      </c>
+      <c r="E31">
+        <v>213.328</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.65700000000001069</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>4.4309999999999832</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0703086664953649E-3</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5820818783607186E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="C32">
+        <v>226.034999999999</v>
+      </c>
+      <c r="D32">
+        <v>226.034999999999</v>
+      </c>
+      <c r="E32">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="C33">
+        <v>244.230999999999</v>
+      </c>
+      <c r="D33">
+        <v>244.230999999999</v>
+      </c>
+      <c r="E33">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>168.464</v>
+      </c>
+      <c r="C34">
+        <v>252.878999999999</v>
+      </c>
+      <c r="D34">
+        <v>252.878999999999</v>
+      </c>
+      <c r="E34">
+        <v>168.464</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>183.52699999999999</v>
+      </c>
+      <c r="C35">
+        <v>258.676999999999</v>
+      </c>
+      <c r="D35">
+        <v>258.676999999999</v>
+      </c>
+      <c r="E35">
+        <v>183.52699999999999</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>197.62</v>
+      </c>
+      <c r="C36">
+        <v>263.957999999999</v>
+      </c>
+      <c r="D36">
+        <v>263.957999999999</v>
+      </c>
+      <c r="E36">
+        <v>197.62</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>207.483</v>
+      </c>
+      <c r="C37">
+        <v>269.41300000000001</v>
+      </c>
+      <c r="D37">
+        <v>269.41300000000001</v>
+      </c>
+      <c r="E37">
+        <v>207.483</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="C38">
+        <v>238.498999999999</v>
+      </c>
+      <c r="D38">
+        <v>238.498999999999</v>
+      </c>
+      <c r="E38">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>140.297</v>
+      </c>
+      <c r="C39">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="D39">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="E39">
+        <v>140.297</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>160.36499999999899</v>
+      </c>
+      <c r="C40">
+        <v>257.17999999999898</v>
+      </c>
+      <c r="D40">
+        <v>257.17999999999898</v>
+      </c>
+      <c r="E40">
+        <v>160.36499999999899</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>171.504999999999</v>
+      </c>
+      <c r="C41">
+        <v>263.43</v>
+      </c>
+      <c r="D41">
+        <v>263.43</v>
+      </c>
+      <c r="E41">
+        <v>171.504999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>182.13899999999899</v>
+      </c>
+      <c r="C42">
+        <v>269.53500000000003</v>
+      </c>
+      <c r="D42">
+        <v>269.53500000000003</v>
+      </c>
+      <c r="E42">
+        <v>182.13899999999899</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>191.71299999999999</v>
+      </c>
+      <c r="C43">
+        <v>274.26399999999899</v>
+      </c>
+      <c r="D43">
+        <v>274.26399999999899</v>
+      </c>
+      <c r="E43">
+        <v>191.71299999999999</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C44">
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D44">
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E44">
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C45">
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D45">
+        <v>265.601</v>
+      </c>
+      <c r="E45">
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>202.55600000000001</v>
+      </c>
+      <c r="C46">
+        <v>275.58399999999898</v>
+      </c>
+      <c r="D46">
+        <v>275.22199999999998</v>
+      </c>
+      <c r="E46">
+        <v>189.84700000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>12.709000000000003</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-0.36199999999900001</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2743142637097904E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3153018290652638E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>217.09100000000001</v>
+      </c>
+      <c r="C47">
+        <v>280.16899999999902</v>
+      </c>
+      <c r="D47">
+        <v>283.16099999999898</v>
+      </c>
+      <c r="E47">
+        <v>219.10300000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-2.0120000000000005</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>2.9919999999999618</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.2680028190942985E-3</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0566426873757235E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>228.38899999999899</v>
+      </c>
+      <c r="C48">
+        <v>283.88299999999902</v>
+      </c>
+      <c r="D48">
+        <v>285.31700000000001</v>
+      </c>
+      <c r="E48">
+        <v>230.14699999999999</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-1.7580000000010045</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1.4340000000009923</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.6973934821773921E-3</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0259886372035038E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>237.483</v>
+      </c>
+      <c r="C49">
+        <v>286.99099999999999</v>
+      </c>
+      <c r="D49">
+        <v>289.46600000000001</v>
+      </c>
+      <c r="E49">
+        <v>234.43100000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>3.0519999999999925</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>2.4750000000000227</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2851446208781229E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5502269696614546E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C50">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D50">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E50">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C51">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D51">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E51">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>206.80199999999999</v>
+      </c>
+      <c r="C52">
+        <v>257.474999999999</v>
+      </c>
+      <c r="D52">
+        <v>256.06</v>
+      </c>
+      <c r="E52">
+        <v>202.63999999999899</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>4.1620000000010009</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-1.4149999999989973</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>2.012553070086847E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.5260485823595924E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>219.09099999999901</v>
+      </c>
+      <c r="C53">
+        <v>263.72800000000001</v>
+      </c>
+      <c r="D53">
+        <v>263.00299999999902</v>
+      </c>
+      <c r="E53">
+        <v>218.58199999999999</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.50899999999901979</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-0.72500000000098908</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3232355505202044E-3</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.7566225480355425E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>235.22</v>
+      </c>
+      <c r="C54">
+        <v>270.48499999999899</v>
+      </c>
+      <c r="D54">
+        <v>271.09699999999901</v>
+      </c>
+      <c r="E54">
+        <v>234.71199999999999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000978</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.61200000000002319</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1596802992943191E-3</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2574945499213394E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>245.19</v>
+      </c>
+      <c r="C55">
+        <v>277.43299999999903</v>
+      </c>
+      <c r="D55">
+        <v>275.59399999999903</v>
+      </c>
+      <c r="E55">
+        <v>242.93299999999999</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2.257000000000005</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-1.8389999999999986</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2051062441372202E-3</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.6728593510744253E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>86.061999999999699</v>
+      </c>
+      <c r="C56">
+        <v>236.05500000000001</v>
+      </c>
+      <c r="D56">
+        <v>236.05500000000001</v>
+      </c>
+      <c r="E56">
+        <v>86.061999999999699</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>134.80499999999901</v>
+      </c>
+      <c r="C57">
+        <v>255.97300000000001</v>
+      </c>
+      <c r="D57">
+        <v>255.97300000000001</v>
+      </c>
+      <c r="E57">
+        <v>134.80499999999901</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>166.60799999999901</v>
+      </c>
+      <c r="C58">
+        <v>265.49799999999999</v>
+      </c>
+      <c r="D58">
+        <v>265.49799999999999</v>
+      </c>
+      <c r="E58">
+        <v>166.60799999999901</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>184.72800000000001</v>
+      </c>
+      <c r="C59">
+        <v>272.53599999999898</v>
+      </c>
+      <c r="D59">
+        <v>272.53599999999898</v>
+      </c>
+      <c r="E59">
+        <v>184.72800000000001</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>197.012</v>
+      </c>
+      <c r="C60">
+        <v>278.61200000000002</v>
+      </c>
+      <c r="D60">
+        <v>278.61200000000002</v>
+      </c>
+      <c r="E60">
+        <v>197.012</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>209.28399999999999</v>
+      </c>
+      <c r="C61">
+        <v>283.837999999999</v>
+      </c>
+      <c r="D61">
+        <v>283.837999999999</v>
+      </c>
+      <c r="E61">
+        <v>209.28399999999999</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>87.853999999999701</v>
+      </c>
+      <c r="C62">
+        <v>238.87499999999901</v>
+      </c>
+      <c r="D62">
+        <v>238.87499999999901</v>
+      </c>
+      <c r="E62">
+        <v>87.853999999999701</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>136.605999999999</v>
+      </c>
+      <c r="C63">
+        <v>256.01299999999901</v>
+      </c>
+      <c r="D63">
+        <v>256.01299999999901</v>
+      </c>
+      <c r="E63">
+        <v>136.605999999999</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>169.58799999999999</v>
+      </c>
+      <c r="C64">
+        <v>266.85399999999902</v>
+      </c>
+      <c r="D64">
+        <v>266.85399999999902</v>
+      </c>
+      <c r="E64">
+        <v>169.58799999999999</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>188.06299999999899</v>
+      </c>
+      <c r="C65">
+        <v>274.024</v>
+      </c>
+      <c r="D65">
+        <v>274.024</v>
+      </c>
+      <c r="E65">
+        <v>188.06299999999899</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>199.46899999999999</v>
+      </c>
+      <c r="C66">
+        <v>280.248999999999</v>
+      </c>
+      <c r="D66">
+        <v>280.248999999999</v>
+      </c>
+      <c r="E66">
+        <v>199.46899999999999</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>210.136</v>
+      </c>
+      <c r="C67">
+        <v>284.33800000000002</v>
+      </c>
+      <c r="D67">
+        <v>284.33800000000002</v>
+      </c>
+      <c r="E67">
+        <v>210.136</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67" si="6">B67-E67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67" si="7">D67-C67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67" si="8">F67/B67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67" si="9">G67/D67</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0470947D-A3C4-40B8-9B2F-980FC4467461}">
+  <dimension ref="A2:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <f>'お互いにDP(cost-user)修正後'!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>'お互いにDP(cost-user)修正後'!B2</f>
+        <v>94.478999999999701</v>
+      </c>
+      <c r="C2">
+        <f>'お互いにDP(cost-user)修正後'!C2</f>
+        <v>225.14999999999901</v>
+      </c>
+      <c r="D2">
+        <f>'お互いにDP(cost-user)修正後'!D2</f>
+        <v>225.14999999999901</v>
+      </c>
+      <c r="E2">
+        <f>'お互いにDP(cost-user)修正後'!E2</f>
+        <v>94.478999999999701</v>
+      </c>
+      <c r="F2">
+        <f>'お互いにDP(cost-user)修正後'!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>'お互いにDP(cost-user)修正後'!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f>'お互いにDP(cost-user)修正後'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>'お互いにDP(cost-user)修正後'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>'お互いにDP(cost-user)修正後'!J2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <f>AVERAGE(H2:H23)</f>
+        <v>6.5336643989425749E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <f>'お互いにDP(cost-user)修正後'!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>'お互いにDP(cost-user)修正後'!B3</f>
+        <v>140.096</v>
+      </c>
+      <c r="C3">
+        <f>'お互いにDP(cost-user)修正後'!C3</f>
+        <v>248.57799999999901</v>
+      </c>
+      <c r="D3">
+        <f>'お互いにDP(cost-user)修正後'!D3</f>
+        <v>248.57799999999901</v>
+      </c>
+      <c r="E3">
+        <f>'お互いにDP(cost-user)修正後'!E3</f>
+        <v>140.096</v>
+      </c>
+      <c r="F3">
+        <f>'お互いにDP(cost-user)修正後'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>'お互いにDP(cost-user)修正後'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>'お互いにDP(cost-user)修正後'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>'お互いにDP(cost-user)修正後'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>'お互いにDP(cost-user)修正後'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MAX(H2:H23)</f>
+        <v>0.2749098159320037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <f>'お互いにDP(cost-user)修正後'!A8</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>'お互いにDP(cost-user)修正後'!B8</f>
+        <v>147.13200000000001</v>
+      </c>
+      <c r="C4">
+        <f>'お互いにDP(cost-user)修正後'!C8</f>
+        <v>244.06299999999899</v>
+      </c>
+      <c r="D4">
+        <f>'お互いにDP(cost-user)修正後'!D8</f>
+        <v>242.88</v>
+      </c>
+      <c r="E4">
+        <f>'お互いにDP(cost-user)修正後'!E8</f>
+        <v>129.649</v>
+      </c>
+      <c r="F4">
+        <f>'お互いにDP(cost-user)修正後'!F8</f>
+        <v>17.483000000000004</v>
+      </c>
+      <c r="G4">
+        <f>'お互いにDP(cost-user)修正後'!G8</f>
+        <v>-1.182999999998998</v>
+      </c>
+      <c r="H4" s="1">
+        <f>'お互いにDP(cost-user)修正後'!H8</f>
+        <v>0.11882527254438194</v>
+      </c>
+      <c r="I4">
+        <f>'お互いにDP(cost-user)修正後'!I8</f>
+        <v>-4.8707180500617503E-3</v>
+      </c>
+      <c r="J4">
+        <f>'お互いにDP(cost-user)修正後'!J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f>'お互いにDP(cost-user)修正後'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>'お互いにDP(cost-user)修正後'!B9</f>
+        <v>199.607</v>
+      </c>
+      <c r="C5">
+        <f>'お互いにDP(cost-user)修正後'!C9</f>
+        <v>259.06900000000002</v>
+      </c>
+      <c r="D5">
+        <f>'お互いにDP(cost-user)修正後'!D9</f>
+        <v>252.176999999999</v>
+      </c>
+      <c r="E5">
+        <f>'お互いにDP(cost-user)修正後'!E9</f>
+        <v>169.453</v>
+      </c>
+      <c r="F5">
+        <f>'お互いにDP(cost-user)修正後'!F9</f>
+        <v>30.153999999999996</v>
+      </c>
+      <c r="G5">
+        <f>'お互いにDP(cost-user)修正後'!G9</f>
+        <v>-6.8920000000010191</v>
+      </c>
+      <c r="H5" s="1">
+        <f>'お互いにDP(cost-user)修正後'!H9</f>
+        <v>0.15106684635308379</v>
+      </c>
+      <c r="I5">
+        <f>'お互いにDP(cost-user)修正後'!I9</f>
+        <v>-2.733001027056808E-2</v>
+      </c>
+      <c r="J5">
+        <f>'お互いにDP(cost-user)修正後'!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f>'お互いにDP(cost-user)修正後'!A14</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>'お互いにDP(cost-user)修正後'!B14</f>
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C6">
+        <f>'お互いにDP(cost-user)修正後'!C14</f>
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D6">
+        <f>'お互いにDP(cost-user)修正後'!D14</f>
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E6">
+        <f>'お互いにDP(cost-user)修正後'!E14</f>
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F6">
+        <f>'お互いにDP(cost-user)修正後'!F14</f>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G6">
+        <f>'お互いにDP(cost-user)修正後'!G14</f>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H6">
+        <f>'お互いにDP(cost-user)修正後'!H14</f>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I6">
+        <f>'お互いにDP(cost-user)修正後'!I14</f>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+      <c r="J6">
+        <f>'お互いにDP(cost-user)修正後'!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <f>'お互いにDP(cost-user)修正後'!A15</f>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>'お互いにDP(cost-user)修正後'!B15</f>
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C7">
+        <f>'お互いにDP(cost-user)修正後'!C15</f>
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D7">
+        <f>'お互いにDP(cost-user)修正後'!D15</f>
+        <v>265.601</v>
+      </c>
+      <c r="E7">
+        <f>'お互いにDP(cost-user)修正後'!E15</f>
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F7">
+        <f>'お互いにDP(cost-user)修正後'!F15</f>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G7">
+        <f>'お互いにDP(cost-user)修正後'!G15</f>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H7">
+        <f>'お互いにDP(cost-user)修正後'!H15</f>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I7">
+        <f>'お互いにDP(cost-user)修正後'!I15</f>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+      <c r="J7">
+        <f>'お互いにDP(cost-user)修正後'!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <f>'お互いにDP(cost-user)修正後'!A20</f>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>'お互いにDP(cost-user)修正後'!B20</f>
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C8">
+        <f>'お互いにDP(cost-user)修正後'!C20</f>
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D8">
+        <f>'お互いにDP(cost-user)修正後'!D20</f>
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E8">
+        <f>'お互いにDP(cost-user)修正後'!E20</f>
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F8">
+        <f>'お互いにDP(cost-user)修正後'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>'お互いにDP(cost-user)修正後'!G20</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>'お互いにDP(cost-user)修正後'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>'お互いにDP(cost-user)修正後'!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>'お互いにDP(cost-user)修正後'!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f>'お互いにDP(cost-user)修正後'!A21</f>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>'お互いにDP(cost-user)修正後'!B21</f>
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C9">
+        <f>'お互いにDP(cost-user)修正後'!C21</f>
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D9">
+        <f>'お互いにDP(cost-user)修正後'!D21</f>
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E9">
+        <f>'お互いにDP(cost-user)修正後'!E21</f>
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F9">
+        <f>'お互いにDP(cost-user)修正後'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>'お互いにDP(cost-user)修正後'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>'お互いにDP(cost-user)修正後'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>'お互いにDP(cost-user)修正後'!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>'お互いにDP(cost-user)修正後'!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>97.300999999999704</v>
+      </c>
+      <c r="C10">
+        <v>222.48</v>
+      </c>
+      <c r="D10">
+        <v>237.37</v>
+      </c>
+      <c r="E10">
+        <v>70.551999999999893</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F23" si="0">B10-E10</f>
+        <v>26.74899999999981</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G23" si="1">D10-C10</f>
+        <v>14.890000000000015</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H23" si="2">F10/B10</f>
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I23" si="3">G10/D10</f>
+        <v>6.2729072755613666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>139.69399999999999</v>
+      </c>
+      <c r="C11">
+        <v>248.16300000000001</v>
+      </c>
+      <c r="D11">
+        <v>252.96799999999899</v>
+      </c>
+      <c r="E11">
+        <v>112.22699999999899</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>27.467000000000994</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.8049999999989836</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19662261800793876</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8994497327721304E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="C12">
+        <v>226.034999999999</v>
+      </c>
+      <c r="D12">
+        <v>226.034999999999</v>
+      </c>
+      <c r="E12">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="C13">
+        <v>244.230999999999</v>
+      </c>
+      <c r="D13">
+        <v>244.230999999999</v>
+      </c>
+      <c r="E13">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="C14">
+        <v>238.498999999999</v>
+      </c>
+      <c r="D14">
+        <v>238.498999999999</v>
+      </c>
+      <c r="E14">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>140.297</v>
+      </c>
+      <c r="C15">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="D15">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="E15">
+        <v>140.297</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C16">
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D16">
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E16">
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C17">
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D17">
+        <v>265.601</v>
+      </c>
+      <c r="E17">
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C18">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D18">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E18">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C19">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D19">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E19">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>86.061999999999699</v>
+      </c>
+      <c r="C20">
+        <v>236.05500000000001</v>
+      </c>
+      <c r="D20">
+        <v>236.05500000000001</v>
+      </c>
+      <c r="E20">
+        <v>86.061999999999699</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>134.80499999999901</v>
+      </c>
+      <c r="C21">
+        <v>255.97300000000001</v>
+      </c>
+      <c r="D21">
+        <v>255.97300000000001</v>
+      </c>
+      <c r="E21">
+        <v>134.80499999999901</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>87.853999999999701</v>
+      </c>
+      <c r="C22">
+        <v>238.87499999999901</v>
+      </c>
+      <c r="D22">
+        <v>238.87499999999901</v>
+      </c>
+      <c r="E22">
+        <v>87.853999999999701</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>136.605999999999</v>
+      </c>
+      <c r="C23">
+        <v>256.01299999999901</v>
+      </c>
+      <c r="D23">
+        <v>256.01299999999901</v>
+      </c>
+      <c r="E23">
+        <v>136.605999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74608A9E-57DC-4B58-B3B7-AA0E9503DE02}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1103,80 +4388,29 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>94.478999999999701</v>
-      </c>
-      <c r="C2">
-        <v>225.14999999999901</v>
-      </c>
-      <c r="D2">
-        <v>225.14999999999901</v>
-      </c>
-      <c r="E2">
-        <v>94.478999999999701</v>
-      </c>
-      <c r="F2">
-        <f>B2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>D2-C2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <f>F2/B2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f>G2/D2</f>
-        <v>0</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="K2" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="1">
         <f>AVERAGE(H2:H67)</f>
-        <v>2.5435845752017752E-2</v>
+        <v>5.4854466333137571E-3</v>
       </c>
       <c r="M2" s="1">
         <f>AVERAGE(I2:I67)</f>
-        <v>1.8737130845176183E-3</v>
+        <v>2.6770287471611269E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>140.096</v>
-      </c>
-      <c r="C3">
-        <v>248.57799999999901</v>
-      </c>
-      <c r="D3">
-        <v>248.57799999999901</v>
-      </c>
-      <c r="E3">
-        <v>140.096</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">B3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">D3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="2">F3/B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" si="3">G3/D3</f>
-        <v>0</v>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(H2:H67)</f>
+        <v>6.2743142637097904E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1196,19 +4430,19 @@
         <v>165.15799999999999</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F66" si="0">B4-E4</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G66" si="1">D4-C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H4:H66" si="2">F4/B4</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I4:I66" si="3">G4/D4</f>
         <v>0</v>
       </c>
     </row>
@@ -1277,6 +4511,17 @@
         <f t="shared" si="3"/>
         <v>1.3894872899608644E-2</v>
       </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(F:F,0)</f>
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <f>L6/63</f>
+        <v>0.26984126984126983</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -1312,70 +4557,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>147.13200000000001</v>
-      </c>
-      <c r="C8">
-        <v>244.06299999999899</v>
-      </c>
-      <c r="D8">
-        <v>242.88</v>
-      </c>
-      <c r="E8">
-        <v>129.649</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>17.483000000000004</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-1.182999999998998</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11882527254438194</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>-4.8707180500617503E-3</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>199.607</v>
-      </c>
-      <c r="C9">
-        <v>259.06900000000002</v>
-      </c>
-      <c r="D9">
-        <v>252.176999999999</v>
-      </c>
-      <c r="E9">
-        <v>169.453</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>30.153999999999996</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-6.8920000000010191</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15106684635308379</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.733001027056808E-2</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
@@ -1510,70 +4697,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>128.11600000000001</v>
-      </c>
-      <c r="C14">
-        <v>258.78399999999999</v>
-      </c>
-      <c r="D14">
-        <v>256.88699999999898</v>
-      </c>
-      <c r="E14">
-        <v>94.555999999999898</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>33.560000000000116</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-1.8970000000010145</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26195010771488425</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>-7.3845698692460967E-3</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>179.26400000000001</v>
-      </c>
-      <c r="C15">
-        <v>269.43599999999901</v>
-      </c>
-      <c r="D15">
-        <v>265.601</v>
-      </c>
-      <c r="E15">
-        <v>163.83999999999901</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>15.424000000001001</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-3.8349999999990132</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>8.6040699750094832E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.4438951660569853E-2</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1708,70 +4837,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>141.64399999999901</v>
-      </c>
-      <c r="C20">
-        <v>236.87499999999901</v>
-      </c>
-      <c r="D20">
-        <v>236.87499999999901</v>
-      </c>
-      <c r="E20">
-        <v>141.64399999999901</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>187.99700000000001</v>
-      </c>
-      <c r="C21">
-        <v>250.45499999999899</v>
-      </c>
-      <c r="D21">
-        <v>250.45499999999899</v>
-      </c>
-      <c r="E21">
-        <v>187.99700000000001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -1906,70 +4977,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>97.300999999999704</v>
-      </c>
-      <c r="C26">
-        <v>222.48</v>
-      </c>
-      <c r="D26">
-        <v>237.37</v>
-      </c>
-      <c r="E26">
-        <v>70.551999999999893</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>26.74899999999981</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>14.890000000000015</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2749098159320037</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="3"/>
-        <v>6.2729072755613666E-2</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>139.69399999999999</v>
-      </c>
-      <c r="C27">
-        <v>248.16300000000001</v>
-      </c>
-      <c r="D27">
-        <v>252.96799999999899</v>
-      </c>
-      <c r="E27">
-        <v>112.22699999999899</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>27.467000000000994</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>4.8049999999989836</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19662261800793876</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="3"/>
-        <v>1.8994497327721304E-2</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -2104,70 +5117,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>94.673000000000201</v>
-      </c>
-      <c r="C32">
-        <v>226.034999999999</v>
-      </c>
-      <c r="D32">
-        <v>226.034999999999</v>
-      </c>
-      <c r="E32">
-        <v>94.673000000000201</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>138.61000000000001</v>
-      </c>
-      <c r="C33">
-        <v>244.230999999999</v>
-      </c>
-      <c r="D33">
-        <v>244.230999999999</v>
-      </c>
-      <c r="E33">
-        <v>138.61000000000001</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -2302,70 +5257,12 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>97.571999999999903</v>
-      </c>
-      <c r="C38">
-        <v>238.498999999999</v>
-      </c>
-      <c r="D38">
-        <v>238.498999999999</v>
-      </c>
-      <c r="E38">
-        <v>97.571999999999903</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>140.297</v>
-      </c>
-      <c r="C39">
-        <v>249.57999999999899</v>
-      </c>
-      <c r="D39">
-        <v>249.57999999999899</v>
-      </c>
-      <c r="E39">
-        <v>140.297</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -2500,70 +5397,12 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>128.11600000000001</v>
-      </c>
-      <c r="C44">
-        <v>258.78399999999999</v>
-      </c>
-      <c r="D44">
-        <v>256.88699999999898</v>
-      </c>
-      <c r="E44">
-        <v>94.555999999999898</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>33.560000000000116</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>-1.8970000000010145</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26195010771488425</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="3"/>
-        <v>-7.3845698692460967E-3</v>
-      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>179.26400000000001</v>
-      </c>
-      <c r="C45">
-        <v>269.43599999999901</v>
-      </c>
-      <c r="D45">
-        <v>265.601</v>
-      </c>
-      <c r="E45">
-        <v>163.83999999999901</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>15.424000000001001</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>-3.8349999999990132</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>8.6040699750094832E-2</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.4438951660569853E-2</v>
-      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -2698,70 +5537,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>141.64399999999901</v>
-      </c>
-      <c r="C50">
-        <v>236.87499999999901</v>
-      </c>
-      <c r="D50">
-        <v>236.87499999999901</v>
-      </c>
-      <c r="E50">
-        <v>141.64399999999901</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>187.99700000000001</v>
-      </c>
-      <c r="C51">
-        <v>250.45499999999899</v>
-      </c>
-      <c r="D51">
-        <v>250.45499999999899</v>
-      </c>
-      <c r="E51">
-        <v>187.99700000000001</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -2896,70 +5677,12 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>9</v>
-      </c>
-      <c r="B56">
-        <v>86.061999999999699</v>
-      </c>
-      <c r="C56">
-        <v>236.05500000000001</v>
-      </c>
-      <c r="D56">
-        <v>236.05500000000001</v>
-      </c>
-      <c r="E56">
-        <v>86.061999999999699</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>9</v>
-      </c>
-      <c r="B57">
-        <v>134.80499999999901</v>
-      </c>
-      <c r="C57">
-        <v>255.97300000000001</v>
-      </c>
-      <c r="D57">
-        <v>255.97300000000001</v>
-      </c>
-      <c r="E57">
-        <v>134.80499999999901</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -3094,70 +5817,12 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>10</v>
-      </c>
-      <c r="B62">
-        <v>87.853999999999701</v>
-      </c>
-      <c r="C62">
-        <v>238.87499999999901</v>
-      </c>
-      <c r="D62">
-        <v>238.87499999999901</v>
-      </c>
-      <c r="E62">
-        <v>87.853999999999701</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>10</v>
-      </c>
-      <c r="B63">
-        <v>136.605999999999</v>
-      </c>
-      <c r="C63">
-        <v>256.01299999999901</v>
-      </c>
-      <c r="D63">
-        <v>256.01299999999901</v>
-      </c>
-      <c r="E63">
-        <v>136.605999999999</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">

--- a/実行結果/お互いにDP(cost-user)修正後.xlsx
+++ b/実行結果/お互いにDP(cost-user)修正後.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BE6E9-F7CD-498D-9AA4-3363504178B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06446EAA-6189-44F3-8FA5-DBA64536B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{F4CE3426-3F33-4730-AC94-F677BB530042}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{F4CE3426-3F33-4730-AC94-F677BB530042}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-user)修正後" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="4つ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>seed</t>
   </si>
@@ -151,6 +153,24 @@
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>一致率</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">maru </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1134,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E23F28A-BE89-4C32-B94D-E4BCB55560AB}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1251,6 +1271,13 @@
         <f t="shared" ref="I3:I66" si="3">G3/D3</f>
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(H2:H67)</f>
+        <v>0.2749098159320037</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -1285,15 +1312,15 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <f>COUNTIF(F:F,0)</f>
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF(F:F,0)/COUNT(H2:H67)</f>
+        <v>0.46969696969696972</v>
       </c>
       <c r="M4" s="2">
         <f>L4/66</f>
-        <v>0.46969696969696972</v>
+        <v>7.1166207529843898E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1577,11 +1604,11 @@
         <v>1</v>
       </c>
       <c r="P11" s="2">
-        <f>AVERAGE(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
+        <f t="shared" ref="P11:P16" si="4">AVERAGE(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
         <v>8.3421391264195829E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f>MAX(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
+        <f t="shared" ref="Q11:Q16" si="5">MAX(H2,H8,H14,H20,H26,H32,H38,H44,H50,H56,H61)</f>
         <v>0.2749098159320037</v>
       </c>
       <c r="R11" s="2">
@@ -1634,11 +1661,11 @@
         <v>2</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:P16" si="4">AVERAGE(H3,H9,H15,H21,H27,H33,H39,H45,H51,H57,H62)</f>
+        <f t="shared" si="4"/>
         <v>4.7251896714655663E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ref="Q12:Q16" si="5">MAX(H3,H9,H15,H21,H27,H33,H39,H45,H51,H57,H62)</f>
+        <f t="shared" si="5"/>
         <v>0.19662261800793876</v>
       </c>
       <c r="R12" s="2">
@@ -3492,19 +3519,19 @@
         <v>210.136</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="6">B67-E67</f>
+        <f>B67-E67</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67" si="7">D67-C67</f>
+        <f>D67-C67</f>
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="8">F67/B67</f>
+        <f>F67/B67</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67" si="9">G67/D67</f>
+        <f>G67/D67</f>
         <v>0</v>
       </c>
     </row>
@@ -4349,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74608A9E-57DC-4B58-B3B7-AA0E9503DE02}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5940,20 +5967,1267 @@
         <v>210.136</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="4">B67-E67</f>
+        <f>B67-E67</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67" si="5">D67-C67</f>
+        <f>D67-C67</f>
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67" si="6">F67/B67</f>
+        <f>F67/B67</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67" si="7">G67/D67</f>
-        <v>0</v>
+        <f>G67/D67</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD1B876-99B4-4959-AAED-3D8EE74F442E}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>94.478999999999701</v>
+      </c>
+      <c r="C1">
+        <v>225.14999999999901</v>
+      </c>
+      <c r="D1">
+        <v>225.14999999999901</v>
+      </c>
+      <c r="E1">
+        <v>94.478999999999701</v>
+      </c>
+      <c r="F1">
+        <f>B1-E1</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>D1-C1</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <f>F1/B1</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <f>G1/D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>140.096</v>
+      </c>
+      <c r="C2">
+        <v>248.57799999999901</v>
+      </c>
+      <c r="D2">
+        <v>248.57799999999901</v>
+      </c>
+      <c r="E2">
+        <v>140.096</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F36" si="0">B2-E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G36" si="1">D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H36" si="2">F2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I36" si="3">G2/D2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(H1:H36)</f>
+        <v>4.3961460881235974E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>165.15799999999999</v>
+      </c>
+      <c r="C3">
+        <v>255.153999999999</v>
+      </c>
+      <c r="D3">
+        <v>255.153999999999</v>
+      </c>
+      <c r="E3">
+        <v>165.15799999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MAX(H1:H36)</f>
+        <v>0.2749098159320037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>176.14599999999899</v>
+      </c>
+      <c r="C4">
+        <v>260.873999999999</v>
+      </c>
+      <c r="D4">
+        <v>264.07499999999902</v>
+      </c>
+      <c r="E4">
+        <v>178.23699999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-2.0910000000010029</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.2010000000000218</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.1870834421451608E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2121556376029664E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF(H1:H36,0)/36</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>147.13200000000001</v>
+      </c>
+      <c r="C5">
+        <v>244.06299999999899</v>
+      </c>
+      <c r="D5">
+        <v>242.88</v>
+      </c>
+      <c r="E5">
+        <v>129.649</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>17.483000000000004</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-1.182999999998998</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11882527254438194</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.8707180500617503E-3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>199.607</v>
+      </c>
+      <c r="C6">
+        <v>259.06900000000002</v>
+      </c>
+      <c r="D6">
+        <v>252.176999999999</v>
+      </c>
+      <c r="E6">
+        <v>169.453</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>30.153999999999996</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-6.8920000000010191</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15106684635308379</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.733001027056808E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>218.029</v>
+      </c>
+      <c r="C7">
+        <v>266.147999999999</v>
+      </c>
+      <c r="D7">
+        <v>265.74699999999899</v>
+      </c>
+      <c r="E7">
+        <v>220.304</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-2.2750000000000057</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-0.40100000000001046</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.0434391755225248E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5089540051252206E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(H1,H5,H9,H13,H17,H21,H25,H29,H33)</f>
+        <v>0.10195947821179491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>230.91099999999901</v>
+      </c>
+      <c r="C8">
+        <v>273.38299999999902</v>
+      </c>
+      <c r="D8">
+        <v>271.80299999999897</v>
+      </c>
+      <c r="E8">
+        <v>232.096</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.185000000000997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1.5800000000000409</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1318473351247978E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.8130337045582533E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L10" si="4">AVERAGE(H2,H6,H10,H14,H18,H22,H26,H30,H34)</f>
+        <v>5.7752318206801365E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C9">
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D9">
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E9">
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1170292663706982E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C10">
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D10">
+        <v>265.601</v>
+      </c>
+      <c r="E10">
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.036245557359347E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>202.55600000000001</v>
+      </c>
+      <c r="C11">
+        <v>275.58399999999898</v>
+      </c>
+      <c r="D11">
+        <v>275.22199999999998</v>
+      </c>
+      <c r="E11">
+        <v>189.84700000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>12.709000000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.36199999999900001</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2743142637097904E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3153018290652638E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>217.09100000000001</v>
+      </c>
+      <c r="C12">
+        <v>280.16899999999902</v>
+      </c>
+      <c r="D12">
+        <v>283.16099999999898</v>
+      </c>
+      <c r="E12">
+        <v>219.10300000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-2.0120000000000005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2.9919999999999618</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.2680028190942985E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0566426873757235E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C13">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D13">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E13">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C14">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D14">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E14">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>206.80199999999999</v>
+      </c>
+      <c r="C15">
+        <v>257.474999999999</v>
+      </c>
+      <c r="D15">
+        <v>256.06</v>
+      </c>
+      <c r="E15">
+        <v>202.63999999999899</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4.1620000000010009</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-1.4149999999989973</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.012553070086847E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.5260485823595924E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>219.09099999999901</v>
+      </c>
+      <c r="C16">
+        <v>263.72800000000001</v>
+      </c>
+      <c r="D16">
+        <v>263.00299999999902</v>
+      </c>
+      <c r="E16">
+        <v>218.58199999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.50899999999901979</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-0.72500000000098908</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3232355505202044E-3</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.7566225480355425E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>97.300999999999704</v>
+      </c>
+      <c r="C17">
+        <v>222.48</v>
+      </c>
+      <c r="D17">
+        <v>237.37</v>
+      </c>
+      <c r="E17">
+        <v>70.551999999999893</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>26.74899999999981</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14.890000000000015</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2749098159320037</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2729072755613666E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>139.69399999999999</v>
+      </c>
+      <c r="C18">
+        <v>248.16300000000001</v>
+      </c>
+      <c r="D18">
+        <v>252.96799999999899</v>
+      </c>
+      <c r="E18">
+        <v>112.22699999999899</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>27.467000000000994</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.8049999999989836</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19662261800793876</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8994497327721304E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>169.06200000000001</v>
+      </c>
+      <c r="C19">
+        <v>257.75599999999901</v>
+      </c>
+      <c r="D19">
+        <v>262.57699999999897</v>
+      </c>
+      <c r="E19">
+        <v>163.10599999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>5.9560000000000173</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.8209999999999695</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5229679052655338E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.836032858932804E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>188.929</v>
+      </c>
+      <c r="C20">
+        <v>262.83199999999903</v>
+      </c>
+      <c r="D20">
+        <v>269.96399999999898</v>
+      </c>
+      <c r="E20">
+        <v>191.65600000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-2.7270000000000039</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7.1319999999999482</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4433993722509534E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6418337259782695E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="C21">
+        <v>226.034999999999</v>
+      </c>
+      <c r="D21">
+        <v>226.034999999999</v>
+      </c>
+      <c r="E21">
+        <v>94.673000000000201</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="C22">
+        <v>244.230999999999</v>
+      </c>
+      <c r="D22">
+        <v>244.230999999999</v>
+      </c>
+      <c r="E22">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>168.464</v>
+      </c>
+      <c r="C23">
+        <v>252.878999999999</v>
+      </c>
+      <c r="D23">
+        <v>252.878999999999</v>
+      </c>
+      <c r="E23">
+        <v>168.464</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>183.52699999999999</v>
+      </c>
+      <c r="C24">
+        <v>258.676999999999</v>
+      </c>
+      <c r="D24">
+        <v>258.676999999999</v>
+      </c>
+      <c r="E24">
+        <v>183.52699999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="C25">
+        <v>238.498999999999</v>
+      </c>
+      <c r="D25">
+        <v>238.498999999999</v>
+      </c>
+      <c r="E25">
+        <v>97.571999999999903</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>140.297</v>
+      </c>
+      <c r="C26">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="D26">
+        <v>249.57999999999899</v>
+      </c>
+      <c r="E26">
+        <v>140.297</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>160.36499999999899</v>
+      </c>
+      <c r="C27">
+        <v>257.17999999999898</v>
+      </c>
+      <c r="D27">
+        <v>257.17999999999898</v>
+      </c>
+      <c r="E27">
+        <v>160.36499999999899</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>171.504999999999</v>
+      </c>
+      <c r="C28">
+        <v>263.43</v>
+      </c>
+      <c r="D28">
+        <v>263.43</v>
+      </c>
+      <c r="E28">
+        <v>171.504999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>128.11600000000001</v>
+      </c>
+      <c r="C29">
+        <v>258.78399999999999</v>
+      </c>
+      <c r="D29">
+        <v>256.88699999999898</v>
+      </c>
+      <c r="E29">
+        <v>94.555999999999898</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>33.560000000000116</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-1.8970000000010145</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26195010771488425</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.3845698692460967E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>179.26400000000001</v>
+      </c>
+      <c r="C30">
+        <v>269.43599999999901</v>
+      </c>
+      <c r="D30">
+        <v>265.601</v>
+      </c>
+      <c r="E30">
+        <v>163.83999999999901</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>15.424000000001001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-3.8349999999990132</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6040699750094832E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4438951660569853E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>202.55600000000001</v>
+      </c>
+      <c r="C31">
+        <v>275.58399999999898</v>
+      </c>
+      <c r="D31">
+        <v>275.22199999999998</v>
+      </c>
+      <c r="E31">
+        <v>189.84700000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>12.709000000000003</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-0.36199999999900001</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2743142637097904E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3153018290652638E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>217.09100000000001</v>
+      </c>
+      <c r="C32">
+        <v>280.16899999999902</v>
+      </c>
+      <c r="D32">
+        <v>283.16099999999898</v>
+      </c>
+      <c r="E32">
+        <v>219.10300000000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-2.0120000000000005</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>2.9919999999999618</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.2680028190942985E-3</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0566426873757235E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="C33">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="D33">
+        <v>236.87499999999901</v>
+      </c>
+      <c r="E33">
+        <v>141.64399999999901</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="C34">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="D34">
+        <v>250.45499999999899</v>
+      </c>
+      <c r="E34">
+        <v>187.99700000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>206.80199999999999</v>
+      </c>
+      <c r="C35">
+        <v>257.474999999999</v>
+      </c>
+      <c r="D35">
+        <v>256.06</v>
+      </c>
+      <c r="E35">
+        <v>202.63999999999899</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>4.1620000000010009</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-1.4149999999989973</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>2.012553070086847E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.5260485823595924E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>219.09099999999901</v>
+      </c>
+      <c r="C36">
+        <v>263.72800000000001</v>
+      </c>
+      <c r="D36">
+        <v>263.00299999999902</v>
+      </c>
+      <c r="E36">
+        <v>218.58199999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.50899999999901979</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-0.72500000000098908</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3232355505202044E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.7566225480355425E-3</v>
       </c>
     </row>
   </sheetData>
